--- a/member.xlsx
+++ b/member.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cksgh\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\hobbyNotice\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VO" sheetId="2" r:id="rId1"/>
@@ -281,9 +281,6 @@
     <t>idCheck</t>
   </si>
   <si>
-    <t>login_view</t>
-  </si>
-  <si>
     <t xml:space="preserve">중복확인 서비스. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -415,7 +412,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이름, 생년월일 추가할 거?</t>
+    <t>이름 memName / 생년월일 memBirth              추가했음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_page</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -993,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1059,7 +1060,7 @@
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
@@ -1258,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1277,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1314,7 +1315,7 @@
         <v>62</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
@@ -1325,7 +1326,7 @@
         <v>63</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
@@ -1345,11 +1346,11 @@
         <v>65</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
@@ -1364,10 +1365,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
@@ -1378,11 +1379,11 @@
         <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
@@ -1394,13 +1395,13 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
@@ -1408,14 +1409,14 @@
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
@@ -1430,23 +1431,23 @@
         <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
@@ -1460,13 +1461,13 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
@@ -1483,10 +1484,10 @@
         <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
@@ -1494,10 +1495,10 @@
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
@@ -1511,13 +1512,13 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="4"/>
@@ -1531,13 +1532,13 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4"/>
@@ -1551,17 +1552,17 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
@@ -1573,13 +1574,13 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
@@ -1634,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1961,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
